--- a/commission/Commission 12nd Nov'24.xlsx
+++ b/commission/Commission 12nd Nov'24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\commission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59BA5BE-5335-4E28-A8F9-EF9A78F34EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A26B4F-5EFD-4F26-89C1-96ED0F0D698F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,7 +746,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
